--- a/staticfiles/excel/Final Schedule.xlsx
+++ b/staticfiles/excel/Final Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narav\Downloads\maximo\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narav\Downloads\maximo\WebConverter\maximo_project\staticfiles\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F78C59D-AD48-48C1-B36A-B4AE49909F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44424B-830D-4E76-9A31-D372BAA36CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,30 +33,6 @@
     <author>นราวิชญ์ ชูช่วย</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2A2F30D2-9A50-4F07-BDE9-C3B16A7A34B4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>"REMARK"</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- ใช้สำหรับ REMARK</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D2" authorId="0" shapeId="0" xr:uid="{1F3E9894-7FB5-4CD3-9283-92DAC44C7AF4}">
       <text>
         <r>
@@ -528,6 +504,30 @@
           </rPr>
           <t xml:space="preserve">
 - ใช้สำหรับแจ้งเตือนข้อผิดพลาด</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{2A2F30D2-9A50-4F07-BDE9-C3B16A7A34B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>"REMARK"</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- ใช้สำหรับ REMARK</t>
         </r>
       </text>
     </comment>
@@ -1213,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1237,7 +1237,7 @@
     <col min="19" max="19" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -1262,16 +1262,7 @@
       <c r="R1" s="22"/>
       <c r="S1" s="20"/>
     </row>
-    <row r="2" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:23" ht="63" x14ac:dyDescent="0.3">
       <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
@@ -1319,6 +1310,15 @@
       </c>
       <c r="S2" s="16" t="s">
         <v>14</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
